--- a/data/trans_orig/P1432-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1432-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69B49343-DE36-4003-BD3B-627987A1F5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F3AA28E-91BF-4D9B-970F-AF279B938645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CE0F08A9-3DA7-4F33-97EE-4B1F0A285C3A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4D7E7D2D-4DD5-4B18-9BB9-34D338C706BC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="355">
   <si>
     <t>Población con diagnóstico de incontinencia urinaria en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,1054 +95,985 @@
     <t>0,93%</t>
   </si>
   <si>
-    <t>3,23%</t>
+    <t>3,31%</t>
   </si>
   <si>
     <t>1,89%</t>
   </si>
   <si>
-    <t>4,81%</t>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
   </si>
   <si>
     <t>1,4%</t>
   </si>
   <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de incontinencia urinaria en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de incontinencia urinaria en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
     <t>0,55%</t>
   </si>
   <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
   </si>
   <si>
     <t>99,45%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
   </si>
   <si>
     <t>0,24%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
+    <t>98,47%</t>
   </si>
   <si>
     <t>99,76%</t>
   </si>
   <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
     <t>0,8%</t>
   </si>
   <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
   </si>
   <si>
     <t>99,2%</t>
   </si>
   <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de incontinencia urinaria en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
   </si>
   <si>
     <t>98,95%</t>
   </si>
   <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de incontinencia urinaria en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
   </si>
   <si>
     <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de incontinencia urinaria en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de incontinencia urinaria en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
   </si>
   <si>
     <t>99,8%</t>
@@ -1584,7 +1515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5976FF95-7798-46DF-882E-7A2FEA5D9CA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7D70A6-62CE-485E-9B9F-FB9F476D0330}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1777,10 +1708,10 @@
         <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -1789,19 +1720,19 @@
         <v>7460</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>269</v>
@@ -1810,13 +1741,13 @@
         <v>270480</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>240</v>
@@ -1825,13 +1756,13 @@
         <v>255908</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M6" s="7">
         <v>509</v>
@@ -1840,13 +1771,13 @@
         <v>526388</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1861,13 +1792,13 @@
         <v>273010</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H7" s="7">
         <v>245</v>
@@ -1876,13 +1807,13 @@
         <v>260838</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>516</v>
@@ -1891,18 +1822,18 @@
         <v>533848</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1920,7 +1851,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1935,7 +1866,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -1950,7 +1881,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1965,13 +1896,13 @@
         <v>2037</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H9" s="7">
         <v>8</v>
@@ -1980,10 +1911,10 @@
         <v>8138</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>42</v>
@@ -2007,7 +1938,7 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
         <v>463</v>
@@ -2022,7 +1953,7 @@
         <v>47</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H10" s="7">
         <v>491</v>
@@ -2067,13 +1998,13 @@
         <v>493075</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H11" s="7">
         <v>499</v>
@@ -2082,13 +2013,13 @@
         <v>503949</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M11" s="7">
         <v>964</v>
@@ -2097,13 +2028,13 @@
         <v>997024</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2141,22 +2072,22 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2171,13 +2102,13 @@
         <v>3845</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -2186,13 +2117,13 @@
         <v>5488</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -2201,19 +2132,19 @@
         <v>9333</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7">
         <v>306</v>
@@ -2222,13 +2153,13 @@
         <v>315001</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H14" s="7">
         <v>329</v>
@@ -2237,13 +2168,13 @@
         <v>329924</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="M14" s="7">
         <v>635</v>
@@ -2252,13 +2183,13 @@
         <v>644925</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2273,13 +2204,13 @@
         <v>318846</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H15" s="7">
         <v>335</v>
@@ -2288,13 +2219,13 @@
         <v>335412</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M15" s="7">
         <v>645</v>
@@ -2303,18 +2234,18 @@
         <v>654258</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2332,7 +2263,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2347,7 +2278,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2362,7 +2293,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2377,13 +2308,13 @@
         <v>2619</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -2392,13 +2323,13 @@
         <v>2086</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -2407,19 +2338,19 @@
         <v>4704</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
         <v>359</v>
@@ -2428,13 +2359,13 @@
         <v>356052</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H18" s="7">
         <v>382</v>
@@ -2443,13 +2374,13 @@
         <v>369370</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>741</v>
@@ -2458,13 +2389,13 @@
         <v>725423</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2479,13 +2410,13 @@
         <v>358671</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H19" s="7">
         <v>384</v>
@@ -2494,13 +2425,13 @@
         <v>371456</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M19" s="7">
         <v>746</v>
@@ -2509,18 +2440,18 @@
         <v>730127</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2553,7 +2484,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2568,7 +2499,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2598,13 +2529,13 @@
         <v>2057</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -2613,19 +2544,19 @@
         <v>2057</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" s="7">
         <v>206</v>
@@ -2634,13 +2565,13 @@
         <v>203308</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H22" s="7">
         <v>196</v>
@@ -2649,13 +2580,13 @@
         <v>205611</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M22" s="7">
         <v>402</v>
@@ -2664,13 +2595,13 @@
         <v>408919</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2685,13 +2616,13 @@
         <v>203308</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H23" s="7">
         <v>198</v>
@@ -2700,13 +2631,13 @@
         <v>207668</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M23" s="7">
         <v>404</v>
@@ -2715,18 +2646,18 @@
         <v>410976</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2744,7 +2675,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2774,7 +2705,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2789,13 +2720,13 @@
         <v>976</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -2804,13 +2735,13 @@
         <v>2339</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -2819,19 +2750,19 @@
         <v>3315</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26" s="7">
         <v>265</v>
@@ -2840,13 +2771,13 @@
         <v>269835</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H26" s="7">
         <v>268</v>
@@ -2855,13 +2786,13 @@
         <v>275805</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M26" s="7">
         <v>533</v>
@@ -2870,13 +2801,13 @@
         <v>545640</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2891,13 +2822,13 @@
         <v>270811</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H27" s="7">
         <v>270</v>
@@ -2906,13 +2837,13 @@
         <v>278144</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M27" s="7">
         <v>536</v>
@@ -2921,18 +2852,18 @@
         <v>548955</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2950,7 +2881,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2965,7 +2896,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2980,7 +2911,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2995,13 +2926,13 @@
         <v>5368</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -3013,10 +2944,10 @@
         <v>55</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M29" s="7">
         <v>9</v>
@@ -3025,19 +2956,19 @@
         <v>9299</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C30" s="7">
         <v>593</v>
@@ -3046,13 +2977,13 @@
         <v>609659</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>133</v>
+        <v>66</v>
       </c>
       <c r="H30" s="7">
         <v>617</v>
@@ -3061,13 +2992,13 @@
         <v>634288</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>134</v>
+        <v>69</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="M30" s="7">
         <v>1210</v>
@@ -3076,13 +3007,13 @@
         <v>1243947</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>137</v>
+        <v>72</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,13 +3028,13 @@
         <v>615027</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H31" s="7">
         <v>621</v>
@@ -3112,13 +3043,13 @@
         <v>638219</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M31" s="7">
         <v>1219</v>
@@ -3127,18 +3058,18 @@
         <v>1253246</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3156,7 +3087,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3171,7 +3102,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -3186,7 +3117,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3201,13 +3132,13 @@
         <v>18549</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="H33" s="7">
         <v>19</v>
@@ -3216,13 +3147,13 @@
         <v>21719</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>144</v>
+        <v>24</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="M33" s="7">
         <v>39</v>
@@ -3231,19 +3162,19 @@
         <v>40268</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C34" s="7">
         <v>716</v>
@@ -3252,13 +3183,13 @@
         <v>725246</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="H34" s="7">
         <v>726</v>
@@ -3267,13 +3198,13 @@
         <v>761792</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="M34" s="7">
         <v>1442</v>
@@ -3282,13 +3213,13 @@
         <v>1487038</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,13 +3234,13 @@
         <v>743795</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H35" s="7">
         <v>745</v>
@@ -3318,13 +3249,13 @@
         <v>783511</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M35" s="7">
         <v>1481</v>
@@ -3333,13 +3264,13 @@
         <v>1527306</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3362,7 +3293,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3377,7 +3308,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -3392,7 +3323,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3407,13 +3338,13 @@
         <v>35923</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="H37" s="7">
         <v>48</v>
@@ -3422,13 +3353,13 @@
         <v>50689</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="M37" s="7">
         <v>85</v>
@@ -3437,19 +3368,19 @@
         <v>86612</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>163</v>
+        <v>43</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>40</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C38" s="7">
         <v>3177</v>
@@ -3458,13 +3389,13 @@
         <v>3240621</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>166</v>
+        <v>50</v>
       </c>
       <c r="H38" s="7">
         <v>3249</v>
@@ -3473,28 +3404,28 @@
         <v>3328509</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="M38" s="7">
         <v>6426</v>
       </c>
       <c r="N38" s="7">
-        <v>6569128</v>
+        <v>6569129</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>170</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3509,13 +3440,13 @@
         <v>3276544</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H39" s="7">
         <v>3297</v>
@@ -3524,33 +3455,33 @@
         <v>3379198</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M39" s="7">
         <v>6511</v>
       </c>
       <c r="N39" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -3574,7 +3505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553C62FE-3793-4ACA-8C5C-899A67C3785C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8115E784-7FB8-4CEF-9B56-B7A88B3D3398}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3591,7 +3522,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3696,39 +3627,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3741,84 +3672,84 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,44 +3762,44 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3886,7 +3817,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3901,7 +3832,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3916,7 +3847,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3931,13 +3862,13 @@
         <v>1062</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="H9" s="7">
         <v>11</v>
@@ -3946,13 +3877,13 @@
         <v>13073</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>179</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
         <v>12</v>
@@ -3961,19 +3892,19 @@
         <v>14135</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>181</v>
+        <v>62</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
         <v>471</v>
@@ -3982,13 +3913,13 @@
         <v>504465</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H10" s="7">
         <v>468</v>
@@ -3997,13 +3928,13 @@
         <v>509583</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>186</v>
+        <v>30</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="M10" s="7">
         <v>939</v>
@@ -4012,13 +3943,13 @@
         <v>1014049</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>190</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4033,13 +3964,13 @@
         <v>505527</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H11" s="7">
         <v>479</v>
@@ -4048,13 +3979,13 @@
         <v>522656</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M11" s="7">
         <v>951</v>
@@ -4063,13 +3994,13 @@
         <v>1028184</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4092,7 +4023,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4107,7 +4038,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4122,7 +4053,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4143,7 +4074,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -4152,13 +4083,13 @@
         <v>2085</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -4167,19 +4098,19 @@
         <v>2085</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7">
         <v>319</v>
@@ -4188,13 +4119,13 @@
         <v>324046</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H14" s="7">
         <v>315</v>
@@ -4203,13 +4134,13 @@
         <v>338935</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M14" s="7">
         <v>634</v>
@@ -4218,13 +4149,13 @@
         <v>662981</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4239,13 +4170,13 @@
         <v>324046</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H15" s="7">
         <v>317</v>
@@ -4254,13 +4185,13 @@
         <v>341020</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M15" s="7">
         <v>636</v>
@@ -4269,18 +4200,18 @@
         <v>665066</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4298,37 +4229,37 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4343,13 +4274,13 @@
         <v>2126</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -4358,13 +4289,13 @@
         <v>9018</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>197</v>
+        <v>107</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -4373,19 +4304,19 @@
         <v>11144</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>200</v>
+        <v>37</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
         <v>624</v>
@@ -4394,13 +4325,13 @@
         <v>666594</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>69</v>
+        <v>188</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>168</v>
+        <v>97</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>618</v>
@@ -4409,13 +4340,13 @@
         <v>667178</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>204</v>
+        <v>114</v>
       </c>
       <c r="M18" s="7">
         <v>1242</v>
@@ -4424,13 +4355,13 @@
         <v>1333772</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>207</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4445,13 +4376,13 @@
         <v>668720</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H19" s="7">
         <v>627</v>
@@ -4460,13 +4391,13 @@
         <v>676196</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M19" s="7">
         <v>1253</v>
@@ -4475,18 +4406,18 @@
         <v>1344916</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4504,7 +4435,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4519,7 +4450,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4534,7 +4465,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4549,13 +4480,13 @@
         <v>4483</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>211</v>
+        <v>44</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="H21" s="7">
         <v>10</v>
@@ -4564,13 +4495,13 @@
         <v>10380</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="M21" s="7">
         <v>13</v>
@@ -4579,19 +4510,19 @@
         <v>14863</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>216</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" s="7">
         <v>193</v>
@@ -4600,13 +4531,13 @@
         <v>208135</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>220</v>
+        <v>53</v>
       </c>
       <c r="H22" s="7">
         <v>202</v>
@@ -4615,13 +4546,13 @@
         <v>209211</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="M22" s="7">
         <v>395</v>
@@ -4630,13 +4561,13 @@
         <v>417346</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>225</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4651,13 +4582,13 @@
         <v>212618</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H23" s="7">
         <v>212</v>
@@ -4666,13 +4597,13 @@
         <v>219591</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M23" s="7">
         <v>408</v>
@@ -4681,18 +4612,18 @@
         <v>432209</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4710,7 +4641,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4740,7 +4671,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4755,13 +4686,13 @@
         <v>954</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -4773,10 +4704,10 @@
         <v>19</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -4785,19 +4716,19 @@
         <v>6217</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>229</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>37</v>
+        <v>213</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26" s="7">
         <v>260</v>
@@ -4806,13 +4737,13 @@
         <v>273027</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H26" s="7">
         <v>263</v>
@@ -4821,13 +4752,13 @@
         <v>272833</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="M26" s="7">
         <v>523</v>
@@ -4836,13 +4767,13 @@
         <v>545860</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>234</v>
+        <v>159</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4857,13 +4788,13 @@
         <v>273981</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H27" s="7">
         <v>268</v>
@@ -4872,13 +4803,13 @@
         <v>278096</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M27" s="7">
         <v>529</v>
@@ -4887,18 +4818,18 @@
         <v>552077</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4916,37 +4847,37 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M28" s="7">
-        <v>0</v>
-      </c>
-      <c r="N28" s="7">
-        <v>0</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4961,13 +4892,13 @@
         <v>10942</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>114</v>
+        <v>221</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -4976,13 +4907,13 @@
         <v>8201</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>240</v>
+        <v>23</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="M29" s="7">
         <v>17</v>
@@ -4991,19 +4922,19 @@
         <v>19143</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>242</v>
+        <v>186</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C30" s="7">
         <v>608</v>
@@ -5012,13 +4943,13 @@
         <v>651846</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>120</v>
+        <v>227</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="H30" s="7">
         <v>629</v>
@@ -5027,13 +4958,13 @@
         <v>685652</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>247</v>
+        <v>34</v>
       </c>
       <c r="M30" s="7">
         <v>1237</v>
@@ -5042,13 +4973,13 @@
         <v>1337498</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>250</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5063,13 +4994,13 @@
         <v>662788</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H31" s="7">
         <v>636</v>
@@ -5078,13 +5009,13 @@
         <v>693853</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M31" s="7">
         <v>1254</v>
@@ -5093,18 +5024,18 @@
         <v>1356641</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -5122,7 +5053,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5137,7 +5068,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -5152,7 +5083,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5167,13 +5098,13 @@
         <v>3089</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="H33" s="7">
         <v>9</v>
@@ -5182,13 +5113,13 @@
         <v>9871</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="M33" s="7">
         <v>12</v>
@@ -5197,19 +5128,19 @@
         <v>12961</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C34" s="7">
         <v>714</v>
@@ -5218,13 +5149,13 @@
         <v>776009</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="H34" s="7">
         <v>747</v>
@@ -5233,13 +5164,13 @@
         <v>812707</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="M34" s="7">
         <v>1461</v>
@@ -5248,13 +5179,13 @@
         <v>1588715</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5269,13 +5200,13 @@
         <v>779098</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H35" s="7">
         <v>756</v>
@@ -5284,13 +5215,13 @@
         <v>822578</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M35" s="7">
         <v>1473</v>
@@ -5299,13 +5230,13 @@
         <v>1601676</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5328,7 +5259,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -5343,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -5358,7 +5289,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5373,13 +5304,13 @@
         <v>22657</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>268</v>
+        <v>37</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>176</v>
+        <v>250</v>
       </c>
       <c r="H37" s="7">
         <v>53</v>
@@ -5388,13 +5319,13 @@
         <v>57892</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>269</v>
+        <v>134</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>270</v>
+        <v>168</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="M37" s="7">
         <v>73</v>
@@ -5403,19 +5334,19 @@
         <v>80549</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>272</v>
+        <v>166</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>273</v>
+        <v>222</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>274</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C38" s="7">
         <v>3189</v>
@@ -5424,13 +5355,13 @@
         <v>3404122</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>276</v>
+        <v>46</v>
       </c>
       <c r="H38" s="7">
         <v>3242</v>
@@ -5439,28 +5370,28 @@
         <v>3496098</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>277</v>
+        <v>142</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>279</v>
+        <v>174</v>
       </c>
       <c r="M38" s="7">
         <v>6431</v>
       </c>
       <c r="N38" s="7">
-        <v>6900219</v>
+        <v>6900220</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>280</v>
+        <v>172</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>281</v>
+        <v>192</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>282</v>
+        <v>229</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5475,13 +5406,13 @@
         <v>3426779</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H39" s="7">
         <v>3295</v>
@@ -5490,33 +5421,33 @@
         <v>3553990</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M39" s="7">
         <v>6504</v>
       </c>
       <c r="N39" s="7">
-        <v>6980768</v>
+        <v>6980769</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -5540,7 +5471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3C5E10-C528-4637-8999-23D421D484E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85DE423-51A8-470A-9A98-6E47D01A5BEC}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5557,7 +5488,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5670,7 +5601,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5685,7 +5616,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5700,7 +5631,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5715,13 +5646,13 @@
         <v>2877</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -5730,13 +5661,13 @@
         <v>5397</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>288</v>
+        <v>77</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -5745,19 +5676,19 @@
         <v>8274</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>39</v>
+        <v>260</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>62</v>
+        <v>249</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>263</v>
@@ -5766,13 +5697,13 @@
         <v>290884</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="H6" s="7">
         <v>272</v>
@@ -5781,13 +5712,13 @@
         <v>283306</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>296</v>
+        <v>84</v>
       </c>
       <c r="M6" s="7">
         <v>535</v>
@@ -5796,13 +5727,13 @@
         <v>574190</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>47</v>
+        <v>266</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>72</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5817,13 +5748,13 @@
         <v>293761</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H7" s="7">
         <v>277</v>
@@ -5832,13 +5763,13 @@
         <v>288703</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>543</v>
@@ -5847,18 +5778,18 @@
         <v>582464</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -5876,7 +5807,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5891,7 +5822,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5906,7 +5837,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5921,13 +5852,13 @@
         <v>2612</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>270</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -5936,13 +5867,13 @@
         <v>4737</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>301</v>
+        <v>234</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="M9" s="7">
         <v>7</v>
@@ -5951,19 +5882,19 @@
         <v>7349</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>303</v>
+        <v>119</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>304</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
         <v>472</v>
@@ -5972,13 +5903,13 @@
         <v>499963</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>31</v>
+        <v>275</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>306</v>
+        <v>276</v>
       </c>
       <c r="H10" s="7">
         <v>480</v>
@@ -5987,13 +5918,13 @@
         <v>518347</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="M10" s="7">
         <v>952</v>
@@ -6002,13 +5933,13 @@
         <v>1018310</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>312</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6023,13 +5954,13 @@
         <v>502575</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H11" s="7">
         <v>484</v>
@@ -6038,13 +5969,13 @@
         <v>523084</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M11" s="7">
         <v>959</v>
@@ -6053,13 +5984,13 @@
         <v>1025659</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6082,7 +6013,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -6097,7 +6028,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6112,7 +6043,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6133,7 +6064,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -6148,7 +6079,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6163,13 +6094,13 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7">
         <v>335</v>
@@ -6178,13 +6109,13 @@
         <v>318565</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>315</v>
+        <v>34</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H14" s="7">
         <v>332</v>
@@ -6193,13 +6124,13 @@
         <v>336309</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M14" s="7">
         <v>667</v>
@@ -6208,13 +6139,13 @@
         <v>654874</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6229,13 +6160,13 @@
         <v>318565</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H15" s="7">
         <v>332</v>
@@ -6244,13 +6175,13 @@
         <v>336309</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M15" s="7">
         <v>667</v>
@@ -6259,18 +6190,18 @@
         <v>654874</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6288,7 +6219,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>240</v>
+        <v>286</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6303,7 +6234,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6318,7 +6249,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6333,13 +6264,13 @@
         <v>970</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>318</v>
+        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -6348,13 +6279,13 @@
         <v>15172</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>319</v>
+        <v>287</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>320</v>
+        <v>81</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -6363,19 +6294,19 @@
         <v>16142</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>322</v>
+        <v>237</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
         <v>353</v>
@@ -6384,13 +6315,13 @@
         <v>368994</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>326</v>
+        <v>90</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>345</v>
@@ -6399,13 +6330,13 @@
         <v>372111</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>327</v>
+        <v>292</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>329</v>
+        <v>88</v>
       </c>
       <c r="M18" s="7">
         <v>698</v>
@@ -6414,13 +6345,13 @@
         <v>741105</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>330</v>
+        <v>245</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>332</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6435,13 +6366,13 @@
         <v>369964</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H19" s="7">
         <v>358</v>
@@ -6450,13 +6381,13 @@
         <v>387283</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M19" s="7">
         <v>712</v>
@@ -6465,18 +6396,18 @@
         <v>757247</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6494,7 +6425,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6509,7 +6440,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6524,7 +6455,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>200</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6539,13 +6470,13 @@
         <v>947</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>334</v>
+        <v>298</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>335</v>
+        <v>299</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6560,7 +6491,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -6569,19 +6500,19 @@
         <v>947</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" s="7">
         <v>211</v>
@@ -6590,13 +6521,13 @@
         <v>210274</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>336</v>
+        <v>302</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H22" s="7">
         <v>223</v>
@@ -6605,13 +6536,13 @@
         <v>218587</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M22" s="7">
         <v>434</v>
@@ -6620,13 +6551,13 @@
         <v>428861</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>168</v>
+        <v>306</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6641,13 +6572,13 @@
         <v>211221</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H23" s="7">
         <v>223</v>
@@ -6656,13 +6587,13 @@
         <v>218587</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M23" s="7">
         <v>435</v>
@@ -6671,18 +6602,18 @@
         <v>429808</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6700,7 +6631,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6715,7 +6646,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -6745,13 +6676,13 @@
         <v>4239</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>143</v>
+        <v>307</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -6760,13 +6691,13 @@
         <v>3479</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>339</v>
+        <v>308</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>100</v>
+        <v>309</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -6775,19 +6706,19 @@
         <v>7717</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>274</v>
+        <v>187</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>341</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26" s="7">
         <v>254</v>
@@ -6799,10 +6730,10 @@
         <v>48</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>149</v>
+        <v>311</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H26" s="7">
         <v>260</v>
@@ -6811,13 +6742,13 @@
         <v>269636</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>342</v>
+        <v>312</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>103</v>
+        <v>313</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="M26" s="7">
         <v>514</v>
@@ -6826,13 +6757,13 @@
         <v>528521</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>281</v>
+        <v>192</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6847,13 +6778,13 @@
         <v>263123</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H27" s="7">
         <v>263</v>
@@ -6862,13 +6793,13 @@
         <v>273115</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M27" s="7">
         <v>522</v>
@@ -6877,18 +6808,18 @@
         <v>536238</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6906,7 +6837,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6921,7 +6852,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -6936,7 +6867,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6951,13 +6882,13 @@
         <v>3612</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>22</v>
+        <v>316</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="H29" s="7">
         <v>14</v>
@@ -6966,13 +6897,13 @@
         <v>16478</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>182</v>
+        <v>318</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>130</v>
+        <v>225</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>346</v>
+        <v>319</v>
       </c>
       <c r="M29" s="7">
         <v>18</v>
@@ -6981,19 +6912,19 @@
         <v>20090</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>347</v>
+        <v>150</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>17</v>
+        <v>296</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>198</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C30" s="7">
         <v>576</v>
@@ -7002,13 +6933,13 @@
         <v>652946</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>33</v>
+        <v>321</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>188</v>
+        <v>90</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="H30" s="7">
         <v>632</v>
@@ -7017,13 +6948,13 @@
         <v>674816</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>189</v>
+        <v>323</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>138</v>
+        <v>231</v>
       </c>
       <c r="M30" s="7">
         <v>1208</v>
@@ -7032,13 +6963,13 @@
         <v>1327762</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>350</v>
+        <v>156</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>203</v>
+        <v>325</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>25</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7053,13 +6984,13 @@
         <v>656558</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H31" s="7">
         <v>646</v>
@@ -7068,13 +6999,13 @@
         <v>691294</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M31" s="7">
         <v>1226</v>
@@ -7083,18 +7014,18 @@
         <v>1347852</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -7112,7 +7043,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7127,7 +7058,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7142,7 +7073,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7157,13 +7088,13 @@
         <v>2260</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>351</v>
+        <v>94</v>
       </c>
       <c r="H33" s="7">
         <v>5</v>
@@ -7172,13 +7103,13 @@
         <v>6007</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="M33" s="7">
         <v>7</v>
@@ -7187,19 +7118,19 @@
         <v>8267</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>353</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C34" s="7">
         <v>748</v>
@@ -7208,13 +7139,13 @@
         <v>776323</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>354</v>
+        <v>97</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H34" s="7">
         <v>750</v>
@@ -7223,13 +7154,13 @@
         <v>820160</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>355</v>
+        <v>328</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>356</v>
+        <v>263</v>
       </c>
       <c r="M34" s="7">
         <v>1498</v>
@@ -7238,13 +7169,13 @@
         <v>1596483</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>357</v>
+        <v>155</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7259,13 +7190,13 @@
         <v>778583</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H35" s="7">
         <v>755</v>
@@ -7274,13 +7205,13 @@
         <v>826167</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M35" s="7">
         <v>1505</v>
@@ -7289,13 +7220,13 @@
         <v>1604750</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7318,7 +7249,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -7333,7 +7264,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -7348,7 +7279,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7363,13 +7294,13 @@
         <v>17516</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>358</v>
+        <v>330</v>
       </c>
       <c r="H37" s="7">
         <v>44</v>
@@ -7378,13 +7309,13 @@
         <v>51270</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>99</v>
+        <v>332</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>192</v>
+        <v>333</v>
       </c>
       <c r="M37" s="7">
         <v>63</v>
@@ -7393,19 +7324,19 @@
         <v>68786</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>14</v>
+        <v>211</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>359</v>
+        <v>334</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C38" s="7">
         <v>3212</v>
@@ -7414,13 +7345,13 @@
         <v>3376834</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>360</v>
+        <v>335</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="H38" s="7">
         <v>3294</v>
@@ -7429,13 +7360,13 @@
         <v>3493272</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>194</v>
+        <v>337</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>102</v>
+        <v>338</v>
       </c>
       <c r="M38" s="7">
         <v>6506</v>
@@ -7444,13 +7375,13 @@
         <v>6870106</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>362</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7465,13 +7396,13 @@
         <v>3394350</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H39" s="7">
         <v>3338</v>
@@ -7480,13 +7411,13 @@
         <v>3544542</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M39" s="7">
         <v>6569</v>
@@ -7495,18 +7426,18 @@
         <v>6938892</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -7530,7 +7461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00141EE1-0D10-49DE-8C99-F7C867174FC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580B5A8A-A020-4AB3-B069-B59E82D05157}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7547,7 +7478,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7654,13 +7585,13 @@
         <v>260298</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H4" s="7">
         <v>538</v>
@@ -7669,13 +7600,13 @@
         <v>271403</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M4" s="7">
         <v>869</v>
@@ -7684,13 +7615,13 @@
         <v>531700</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7711,7 +7642,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -7726,7 +7657,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -7741,13 +7672,13 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -7762,7 +7693,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -7777,7 +7708,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -7792,7 +7723,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7807,13 +7738,13 @@
         <v>260298</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H7" s="7">
         <v>538</v>
@@ -7822,13 +7753,13 @@
         <v>271403</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>869</v>
@@ -7837,18 +7768,18 @@
         <v>531700</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -7860,13 +7791,13 @@
         <v>519297</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H8" s="7">
         <v>717</v>
@@ -7875,13 +7806,13 @@
         <v>554566</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M8" s="7">
         <v>1099</v>
@@ -7890,13 +7821,13 @@
         <v>1073864</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>306</v>
+        <v>276</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7917,7 +7848,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -7932,7 +7863,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -7947,13 +7878,13 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -7968,7 +7899,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -7983,7 +7914,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -7998,7 +7929,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8013,13 +7944,13 @@
         <v>519297</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H11" s="7">
         <v>717</v>
@@ -8028,13 +7959,13 @@
         <v>554566</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M11" s="7">
         <v>1099</v>
@@ -8043,13 +7974,13 @@
         <v>1073864</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8066,13 +7997,13 @@
         <v>322240</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H12" s="7">
         <v>536</v>
@@ -8081,13 +8012,13 @@
         <v>373284</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M12" s="7">
         <v>896</v>
@@ -8096,13 +8027,13 @@
         <v>695524</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8123,7 +8054,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -8138,7 +8069,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -8153,13 +8084,13 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -8174,7 +8105,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -8189,7 +8120,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -8204,7 +8135,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8219,13 +8150,13 @@
         <v>322240</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H15" s="7">
         <v>536</v>
@@ -8234,13 +8165,13 @@
         <v>373284</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M15" s="7">
         <v>896</v>
@@ -8249,18 +8180,18 @@
         <v>695524</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -8272,13 +8203,13 @@
         <v>322240</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H16" s="7">
         <v>599</v>
@@ -8287,13 +8218,13 @@
         <v>428556</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>69</v>
+        <v>188</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M16" s="7">
         <v>891</v>
@@ -8302,13 +8233,13 @@
         <v>750796</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8329,7 +8260,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -8344,7 +8275,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -8359,13 +8290,13 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -8380,7 +8311,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -8395,7 +8326,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -8410,7 +8341,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8425,13 +8356,13 @@
         <v>322240</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H19" s="7">
         <v>599</v>
@@ -8440,13 +8371,13 @@
         <v>428556</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M19" s="7">
         <v>891</v>
@@ -8455,18 +8386,18 @@
         <v>750796</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -8478,13 +8409,13 @@
         <v>196748</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H20" s="7">
         <v>495</v>
@@ -8493,13 +8424,13 @@
         <v>259513</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>366</v>
+        <v>220</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M20" s="7">
         <v>774</v>
@@ -8508,13 +8439,13 @@
         <v>456260</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>356</v>
+        <v>279</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8535,7 +8466,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -8550,7 +8481,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>367</v>
+        <v>213</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -8565,13 +8496,13 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -8586,7 +8517,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -8601,7 +8532,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>367</v>
+        <v>213</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -8616,7 +8547,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8631,13 +8562,13 @@
         <v>196748</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H23" s="7">
         <v>495</v>
@@ -8646,13 +8577,13 @@
         <v>259513</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M23" s="7">
         <v>774</v>
@@ -8661,18 +8592,18 @@
         <v>456260</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8684,13 +8615,13 @@
         <v>277223</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H24" s="7">
         <v>460</v>
@@ -8699,13 +8630,13 @@
         <v>275622</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>276</v>
+        <v>343</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M24" s="7">
         <v>831</v>
@@ -8714,13 +8645,13 @@
         <v>552845</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8741,7 +8672,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -8756,7 +8687,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>268</v>
+        <v>344</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -8771,13 +8702,13 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -8792,7 +8723,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -8807,7 +8738,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>268</v>
+        <v>344</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -8822,7 +8753,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8837,13 +8768,13 @@
         <v>277223</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H27" s="7">
         <v>460</v>
@@ -8852,13 +8783,13 @@
         <v>275622</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M27" s="7">
         <v>831</v>
@@ -8867,18 +8798,18 @@
         <v>552845</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8890,13 +8821,13 @@
         <v>627754</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>69</v>
+        <v>188</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H28" s="7">
         <v>960</v>
@@ -8905,13 +8836,13 @@
         <v>804203</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M28" s="7">
         <v>1559</v>
@@ -8920,13 +8851,13 @@
         <v>1431957</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8947,7 +8878,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -8962,7 +8893,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -8977,13 +8908,13 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>370</v>
+        <v>347</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C30" s="7">
         <v>0</v>
@@ -8998,7 +8929,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -9013,7 +8944,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -9028,7 +8959,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>370</v>
+        <v>347</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9043,13 +8974,13 @@
         <v>627754</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H31" s="7">
         <v>960</v>
@@ -9058,13 +8989,13 @@
         <v>804203</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M31" s="7">
         <v>1559</v>
@@ -9073,18 +9004,18 @@
         <v>1431957</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -9096,13 +9027,13 @@
         <v>859428</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>356</v>
+        <v>279</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H32" s="7">
         <v>1062</v>
@@ -9111,13 +9042,13 @@
         <v>868434</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M32" s="7">
         <v>1824</v>
@@ -9126,13 +9057,13 @@
         <v>1727862</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>371</v>
+        <v>348</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9153,7 +9084,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -9168,7 +9099,7 @@
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -9183,13 +9114,13 @@
         <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>372</v>
+        <v>349</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C34" s="7">
         <v>0</v>
@@ -9204,7 +9135,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -9219,7 +9150,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -9234,7 +9165,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>372</v>
+        <v>349</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9249,13 +9180,13 @@
         <v>859428</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H35" s="7">
         <v>1062</v>
@@ -9264,13 +9195,13 @@
         <v>868434</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M35" s="7">
         <v>1824</v>
@@ -9279,13 +9210,13 @@
         <v>1727862</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9302,13 +9233,13 @@
         <v>3385228</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H36" s="7">
         <v>5367</v>
@@ -9317,13 +9248,13 @@
         <v>3835581</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>374</v>
+        <v>351</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M36" s="7">
         <v>8743</v>
@@ -9332,13 +9263,13 @@
         <v>7220809</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9359,7 +9290,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -9374,7 +9305,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>376</v>
+        <v>353</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -9389,13 +9320,13 @@
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>377</v>
+        <v>354</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C38" s="7">
         <v>0</v>
@@ -9410,7 +9341,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -9425,7 +9356,7 @@
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>376</v>
+        <v>353</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -9440,7 +9371,7 @@
         <v>12</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>377</v>
+        <v>354</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9455,13 +9386,13 @@
         <v>3385228</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H39" s="7">
         <v>5367</v>
@@ -9470,13 +9401,13 @@
         <v>3835581</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M39" s="7">
         <v>8743</v>
@@ -9485,18 +9416,18 @@
         <v>7220809</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1432-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1432-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F3AA28E-91BF-4D9B-970F-AF279B938645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{449E85AC-DEB5-4AA8-9EA9-902B639F7991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4D7E7D2D-4DD5-4B18-9BB9-34D338C706BC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C9C68D53-AAF9-47FE-8FB7-86A45A43F159}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="368">
   <si>
     <t>Población con diagnóstico de incontinencia urinaria en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,979 +95,1018 @@
     <t>0,93%</t>
   </si>
   <si>
-    <t>3,31%</t>
+    <t>3,51%</t>
   </si>
   <si>
     <t>1,89%</t>
   </si>
   <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de incontinencia urinaria en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de incontinencia urinaria en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
     <t>0,7%</t>
   </si>
   <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
   </si>
   <si>
     <t>99,3%</t>
   </si>
   <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
   </si>
   <si>
     <t>99,43%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
   </si>
   <si>
     <t>1,39%</t>
   </si>
   <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
   </si>
   <si>
     <t>98,61%</t>
   </si>
   <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
     <t>98,51%</t>
   </si>
   <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de incontinencia urinaria en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
   </si>
   <si>
     <t>1,0%</t>
   </si>
   <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
+    <t>98,43%</t>
   </si>
   <si>
     <t>99,0%</t>
   </si>
   <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de incontinencia urinaria en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de incontinencia urinaria en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,47%</t>
   </si>
   <si>
     <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de incontinencia urinaria en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
   </si>
   <si>
     <t>99,58%</t>
@@ -1515,7 +1554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7D70A6-62CE-485E-9B9F-FB9F476D0330}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316AEF90-6104-476F-B2C8-2C82BC92079E}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1914,10 +1953,10 @@
         <v>41</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M9" s="7">
         <v>10</v>
@@ -1926,13 +1965,13 @@
         <v>10175</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1947,10 +1986,10 @@
         <v>491038</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>28</v>
@@ -1962,13 +2001,13 @@
         <v>495811</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M10" s="7">
         <v>954</v>
@@ -1977,13 +2016,13 @@
         <v>986849</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2039,7 +2078,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2057,7 +2096,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2072,7 +2111,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2087,7 +2126,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2102,13 +2141,13 @@
         <v>3845</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -2117,13 +2156,13 @@
         <v>5488</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -2132,13 +2171,13 @@
         <v>9333</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2153,13 +2192,13 @@
         <v>315001</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H14" s="7">
         <v>329</v>
@@ -2168,13 +2207,13 @@
         <v>329924</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M14" s="7">
         <v>635</v>
@@ -2183,13 +2222,13 @@
         <v>644925</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2245,7 +2284,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2263,7 +2302,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2278,7 +2317,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2293,7 +2332,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2308,13 +2347,13 @@
         <v>2619</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -2323,13 +2362,13 @@
         <v>2086</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -2338,13 +2377,13 @@
         <v>4704</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2359,13 +2398,13 @@
         <v>356052</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H18" s="7">
         <v>382</v>
@@ -2374,10 +2413,10 @@
         <v>369370</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>28</v>
@@ -2389,13 +2428,13 @@
         <v>725423</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>90</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,7 +2583,7 @@
         <v>2057</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>11</v>
@@ -2756,7 +2795,7 @@
         <v>108</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>109</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,10 +2810,10 @@
         <v>269835</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>28</v>
@@ -2786,10 +2825,10 @@
         <v>275805</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>28</v>
@@ -2801,13 +2840,13 @@
         <v>545640</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2863,7 +2902,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2881,37 +2920,37 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M28" s="7">
-        <v>0</v>
-      </c>
-      <c r="N28" s="7">
-        <v>0</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2926,13 +2965,13 @@
         <v>5368</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -2941,13 +2980,13 @@
         <v>3931</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M29" s="7">
         <v>9</v>
@@ -2956,13 +2995,13 @@
         <v>9299</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>103</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2977,13 +3016,13 @@
         <v>609659</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H30" s="7">
         <v>617</v>
@@ -2992,13 +3031,13 @@
         <v>634288</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M30" s="7">
         <v>1210</v>
@@ -3007,13 +3046,13 @@
         <v>1243947</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3069,7 +3108,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3087,7 +3126,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3102,7 +3141,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -3117,7 +3156,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3132,13 +3171,13 @@
         <v>18549</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H33" s="7">
         <v>19</v>
@@ -3147,13 +3186,13 @@
         <v>21719</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>24</v>
+        <v>134</v>
       </c>
       <c r="K33" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M33" s="7">
         <v>39</v>
@@ -3162,10 +3201,10 @@
         <v>40268</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>139</v>
@@ -3198,13 +3237,13 @@
         <v>761792</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>33</v>
+        <v>143</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M34" s="7">
         <v>1442</v>
@@ -3213,13 +3252,13 @@
         <v>1487038</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,7 +3332,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3308,7 +3347,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -3323,7 +3362,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3338,13 +3377,13 @@
         <v>35923</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H37" s="7">
         <v>48</v>
@@ -3353,13 +3392,13 @@
         <v>50689</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="K37" s="7" t="s">
-        <v>152</v>
-      </c>
       <c r="L37" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M37" s="7">
         <v>85</v>
@@ -3368,13 +3407,13 @@
         <v>86612</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>43</v>
+        <v>156</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3386,16 +3425,16 @@
         <v>3177</v>
       </c>
       <c r="D38" s="7">
-        <v>3240621</v>
+        <v>3240620</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="H38" s="7">
         <v>3249</v>
@@ -3404,13 +3443,13 @@
         <v>3328509</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K38" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M38" s="7">
         <v>6426</v>
@@ -3419,13 +3458,13 @@
         <v>6569129</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>51</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3437,7 +3476,7 @@
         <v>3214</v>
       </c>
       <c r="D39" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>35</v>
@@ -3481,7 +3520,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3505,7 +3544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8115E784-7FB8-4CEF-9B56-B7A88B3D3398}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1902492-B8CE-403A-886B-D05726A75A86}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3522,7 +3561,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3627,39 +3666,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3672,39 +3711,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3717,39 +3756,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3762,39 +3801,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3832,7 +3871,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3862,13 +3901,13 @@
         <v>1062</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="H9" s="7">
         <v>11</v>
@@ -3877,13 +3916,13 @@
         <v>13073</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="M9" s="7">
         <v>12</v>
@@ -3892,13 +3931,13 @@
         <v>14135</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3913,10 +3952,10 @@
         <v>504465</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>28</v>
@@ -3928,13 +3967,13 @@
         <v>509583</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="M10" s="7">
         <v>939</v>
@@ -3943,13 +3982,13 @@
         <v>1014049</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,7 +4044,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4053,7 +4092,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4083,13 +4122,13 @@
         <v>2085</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -4098,13 +4137,13 @@
         <v>2085</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4122,7 +4161,7 @@
         <v>28</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>35</v>
@@ -4134,10 +4173,10 @@
         <v>338935</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>28</v>
@@ -4149,10 +4188,10 @@
         <v>662981</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>28</v>
@@ -4211,7 +4250,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4229,7 +4268,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4244,7 +4283,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4259,7 +4298,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>123</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4274,13 +4313,13 @@
         <v>2126</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>94</v>
+        <v>151</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -4289,13 +4328,13 @@
         <v>9018</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>107</v>
+        <v>193</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -4304,13 +4343,13 @@
         <v>11144</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>37</v>
+        <v>196</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>187</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4325,10 +4364,10 @@
         <v>666594</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>97</v>
+        <v>158</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>28</v>
@@ -4340,13 +4379,13 @@
         <v>667178</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="M18" s="7">
         <v>1242</v>
@@ -4355,13 +4394,13 @@
         <v>1333772</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>192</v>
+        <v>72</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>46</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4435,7 +4474,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4450,7 +4489,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4480,13 +4519,13 @@
         <v>4483</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="H21" s="7">
         <v>10</v>
@@ -4495,13 +4534,13 @@
         <v>10380</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="M21" s="7">
         <v>13</v>
@@ -4510,13 +4549,13 @@
         <v>14863</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4531,13 +4570,13 @@
         <v>208135</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="H22" s="7">
         <v>202</v>
@@ -4546,13 +4585,13 @@
         <v>209211</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="M22" s="7">
         <v>395</v>
@@ -4561,13 +4600,13 @@
         <v>417346</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4641,7 +4680,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4686,13 +4725,13 @@
         <v>954</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -4704,10 +4743,10 @@
         <v>19</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -4716,13 +4755,13 @@
         <v>6217</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>152</v>
+        <v>222</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4737,10 +4776,10 @@
         <v>273027</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>28</v>
@@ -4755,10 +4794,10 @@
         <v>29</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>218</v>
+        <v>85</v>
       </c>
       <c r="M26" s="7">
         <v>523</v>
@@ -4767,13 +4806,13 @@
         <v>545860</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>227</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4829,7 +4868,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4847,7 +4886,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4862,7 +4901,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4877,7 +4916,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>123</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4892,13 +4931,13 @@
         <v>10942</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -4907,13 +4946,13 @@
         <v>8201</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>23</v>
+        <v>233</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>167</v>
+        <v>234</v>
       </c>
       <c r="M29" s="7">
         <v>17</v>
@@ -4922,13 +4961,13 @@
         <v>19143</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>186</v>
+        <v>236</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4943,13 +4982,13 @@
         <v>651846</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="H30" s="7">
         <v>629</v>
@@ -4958,13 +4997,13 @@
         <v>685652</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>173</v>
+        <v>242</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>34</v>
+        <v>243</v>
       </c>
       <c r="M30" s="7">
         <v>1237</v>
@@ -4973,13 +5012,13 @@
         <v>1337498</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>191</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5035,7 +5074,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -5053,7 +5092,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5068,7 +5107,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -5083,7 +5122,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5098,13 +5137,13 @@
         <v>3089</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>235</v>
+        <v>171</v>
       </c>
       <c r="H33" s="7">
         <v>9</v>
@@ -5113,13 +5152,13 @@
         <v>9871</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>82</v>
+        <v>250</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="M33" s="7">
         <v>12</v>
@@ -5128,13 +5167,13 @@
         <v>12961</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>239</v>
+        <v>37</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>240</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5149,13 +5188,13 @@
         <v>776009</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>242</v>
+        <v>178</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="H34" s="7">
         <v>747</v>
@@ -5164,13 +5203,13 @@
         <v>812707</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>89</v>
+        <v>256</v>
       </c>
       <c r="M34" s="7">
         <v>1461</v>
@@ -5182,10 +5221,10 @@
         <v>246</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>247</v>
+        <v>32</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>248</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5259,7 +5298,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -5274,7 +5313,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -5289,7 +5328,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,13 +5343,13 @@
         <v>22657</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>249</v>
+        <v>42</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>37</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="H37" s="7">
         <v>53</v>
@@ -5319,13 +5358,13 @@
         <v>57892</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="M37" s="7">
         <v>73</v>
@@ -5334,13 +5373,13 @@
         <v>80549</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>166</v>
+        <v>260</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>187</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5355,13 +5394,13 @@
         <v>3404122</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>252</v>
+        <v>51</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" s="7">
         <v>3242</v>
@@ -5370,28 +5409,28 @@
         <v>3496098</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>174</v>
+        <v>263</v>
       </c>
       <c r="M38" s="7">
         <v>6431</v>
       </c>
       <c r="N38" s="7">
-        <v>6900220</v>
+        <v>6900219</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>172</v>
+        <v>264</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>192</v>
+        <v>72</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5433,7 +5472,7 @@
         <v>6504</v>
       </c>
       <c r="N39" s="7">
-        <v>6980769</v>
+        <v>6980768</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>35</v>
@@ -5447,7 +5486,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -5471,7 +5510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85DE423-51A8-470A-9A98-6E47D01A5BEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F16CC905-5E90-4AEE-88DA-2891EF8622AF}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5488,7 +5527,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5616,7 +5655,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>256</v>
+        <v>193</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5631,7 +5670,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5646,13 +5685,13 @@
         <v>2877</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -5661,13 +5700,13 @@
         <v>5397</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -5676,13 +5715,13 @@
         <v>8274</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>249</v>
+        <v>184</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5697,13 +5736,13 @@
         <v>290884</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="H6" s="7">
         <v>272</v>
@@ -5712,13 +5751,13 @@
         <v>283306</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>84</v>
+        <v>279</v>
       </c>
       <c r="M6" s="7">
         <v>535</v>
@@ -5727,13 +5766,13 @@
         <v>574190</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>252</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5807,7 +5846,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5822,7 +5861,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5852,13 +5891,13 @@
         <v>2612</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>270</v>
+        <v>22</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -5867,13 +5906,13 @@
         <v>4737</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>234</v>
+        <v>285</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="M9" s="7">
         <v>7</v>
@@ -5885,10 +5924,10 @@
         <v>102</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>273</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5903,13 +5942,13 @@
         <v>499963</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>275</v>
+        <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="H10" s="7">
         <v>480</v>
@@ -5918,13 +5957,13 @@
         <v>518347</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="M10" s="7">
         <v>952</v>
@@ -5933,13 +5972,13 @@
         <v>1018310</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>281</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>182</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5995,7 +6034,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6013,7 +6052,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -6028,7 +6067,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6043,7 +6082,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6064,7 +6103,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -6079,7 +6118,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6094,7 +6133,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6112,7 +6151,7 @@
         <v>28</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>34</v>
+        <v>295</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>35</v>
@@ -6127,7 +6166,7 @@
         <v>28</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>35</v>
@@ -6142,7 +6181,7 @@
         <v>28</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>35</v>
@@ -6201,7 +6240,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6219,7 +6258,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6234,7 +6273,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6249,7 +6288,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6264,13 +6303,13 @@
         <v>970</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>83</v>
+        <v>299</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -6279,13 +6318,13 @@
         <v>15172</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>81</v>
+        <v>301</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -6294,13 +6333,13 @@
         <v>16142</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>237</v>
+        <v>303</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>290</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6315,10 +6354,10 @@
         <v>368994</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>90</v>
+        <v>306</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>28</v>
@@ -6330,13 +6369,13 @@
         <v>372111</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>88</v>
+        <v>309</v>
       </c>
       <c r="M18" s="7">
         <v>698</v>
@@ -6345,13 +6384,13 @@
         <v>741105</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>245</v>
+        <v>310</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>294</v>
+        <v>217</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6425,7 +6464,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6440,7 +6479,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6455,7 +6494,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6470,13 +6509,13 @@
         <v>947</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>298</v>
+        <v>233</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6491,7 +6530,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -6500,13 +6539,13 @@
         <v>947</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>301</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6521,10 +6560,10 @@
         <v>210274</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>302</v>
+        <v>243</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>28</v>
@@ -6539,7 +6578,7 @@
         <v>28</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>35</v>
@@ -6551,10 +6590,10 @@
         <v>428861</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>306</v>
+        <v>52</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>28</v>
@@ -6631,7 +6670,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6646,7 +6685,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -6679,10 +6718,10 @@
         <v>41</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -6691,13 +6730,13 @@
         <v>3479</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>308</v>
+        <v>173</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -6706,13 +6745,13 @@
         <v>7717</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>187</v>
+        <v>319</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>310</v>
+        <v>193</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6727,13 +6766,13 @@
         <v>258884</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="H26" s="7">
         <v>260</v>
@@ -6742,13 +6781,13 @@
         <v>269636</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>312</v>
+        <v>181</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="M26" s="7">
         <v>514</v>
@@ -6757,13 +6796,13 @@
         <v>528521</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>192</v>
+        <v>323</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>314</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6819,7 +6858,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6837,7 +6876,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6852,7 +6891,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -6867,7 +6906,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6882,13 +6921,13 @@
         <v>3612</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="H29" s="7">
         <v>14</v>
@@ -6897,13 +6936,13 @@
         <v>16478</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>318</v>
+        <v>223</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>225</v>
+        <v>328</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="M29" s="7">
         <v>18</v>
@@ -6912,13 +6951,13 @@
         <v>20090</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>150</v>
+        <v>330</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6933,13 +6972,13 @@
         <v>652946</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="H30" s="7">
         <v>632</v>
@@ -6948,13 +6987,13 @@
         <v>674816</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>323</v>
+        <v>228</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>231</v>
+        <v>336</v>
       </c>
       <c r="M30" s="7">
         <v>1208</v>
@@ -6963,13 +7002,13 @@
         <v>1327762</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>156</v>
+        <v>337</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7025,7 +7064,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -7043,7 +7082,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7058,7 +7097,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7073,7 +7112,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7088,13 +7127,13 @@
         <v>2260</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>94</v>
+        <v>186</v>
       </c>
       <c r="H33" s="7">
         <v>5</v>
@@ -7103,13 +7142,13 @@
         <v>6007</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>233</v>
+        <v>78</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="M33" s="7">
         <v>7</v>
@@ -7118,13 +7157,13 @@
         <v>8267</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>327</v>
+        <v>120</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>149</v>
+        <v>341</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7139,10 +7178,10 @@
         <v>776323</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>97</v>
+        <v>190</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>28</v>
@@ -7154,13 +7193,13 @@
         <v>820160</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="M34" s="7">
         <v>1498</v>
@@ -7169,13 +7208,13 @@
         <v>1596483</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>155</v>
+        <v>343</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>329</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7249,7 +7288,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -7264,7 +7303,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -7279,7 +7318,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7294,13 +7333,13 @@
         <v>17516</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>118</v>
+        <v>325</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="H37" s="7">
         <v>44</v>
@@ -7309,13 +7348,13 @@
         <v>51270</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>331</v>
+        <v>40</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>332</v>
+        <v>186</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="M37" s="7">
         <v>63</v>
@@ -7327,10 +7366,10 @@
         <v>94</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>211</v>
+        <v>346</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7345,13 +7384,13 @@
         <v>3376834</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>188</v>
+        <v>349</v>
       </c>
       <c r="H38" s="7">
         <v>3294</v>
@@ -7360,13 +7399,13 @@
         <v>3493272</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>336</v>
+        <v>48</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>338</v>
+        <v>190</v>
       </c>
       <c r="M38" s="7">
         <v>6506</v>
@@ -7378,10 +7417,10 @@
         <v>97</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>218</v>
+        <v>352</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7437,7 +7476,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -7461,7 +7500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580B5A8A-A020-4AB3-B069-B59E82D05157}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADBCD1C2-3ED1-4871-86D7-F63B0FA5FFCC}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7478,7 +7517,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7588,7 +7627,7 @@
         <v>28</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>35</v>
@@ -7603,7 +7642,7 @@
         <v>28</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>35</v>
@@ -7618,7 +7657,7 @@
         <v>28</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>35</v>
@@ -7642,7 +7681,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -7672,7 +7711,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7693,7 +7732,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -7723,7 +7762,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7809,7 +7848,7 @@
         <v>28</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>35</v>
@@ -7824,7 +7863,7 @@
         <v>28</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>35</v>
@@ -7848,7 +7887,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -7863,7 +7902,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -7878,7 +7917,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7899,7 +7938,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -7914,7 +7953,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -7929,7 +7968,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7985,7 +8024,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -8000,7 +8039,7 @@
         <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>35</v>
@@ -8015,7 +8054,7 @@
         <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>35</v>
@@ -8030,7 +8069,7 @@
         <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>35</v>
@@ -8054,7 +8093,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -8084,7 +8123,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8105,7 +8144,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -8135,7 +8174,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8191,7 +8230,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -8206,7 +8245,7 @@
         <v>28</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>252</v>
+        <v>51</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>35</v>
@@ -8221,7 +8260,7 @@
         <v>28</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>35</v>
@@ -8236,7 +8275,7 @@
         <v>28</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>35</v>
@@ -8260,7 +8299,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>249</v>
+        <v>42</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -8275,7 +8314,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -8290,7 +8329,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8311,7 +8350,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>249</v>
+        <v>42</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -8326,7 +8365,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -8341,7 +8380,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8412,7 +8451,7 @@
         <v>28</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>35</v>
@@ -8427,7 +8466,7 @@
         <v>28</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>35</v>
@@ -8442,7 +8481,7 @@
         <v>28</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>279</v>
+        <v>355</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>35</v>
@@ -8466,7 +8505,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>256</v>
+        <v>193</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -8481,7 +8520,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -8496,7 +8535,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8517,7 +8556,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>256</v>
+        <v>193</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -8532,7 +8571,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -8547,7 +8586,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8618,7 +8657,7 @@
         <v>28</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>35</v>
@@ -8633,7 +8672,7 @@
         <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>35</v>
@@ -8648,7 +8687,7 @@
         <v>28</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>35</v>
@@ -8672,7 +8711,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -8687,7 +8726,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -8702,7 +8741,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8723,7 +8762,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -8738,7 +8777,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -8753,7 +8792,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8809,7 +8848,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8824,7 +8863,7 @@
         <v>28</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>35</v>
@@ -8839,7 +8878,7 @@
         <v>28</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>35</v>
@@ -8854,7 +8893,7 @@
         <v>28</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>35</v>
@@ -8878,7 +8917,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -8908,7 +8947,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8929,7 +8968,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -8959,7 +8998,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9015,7 +9054,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -9030,7 +9069,7 @@
         <v>28</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>279</v>
+        <v>355</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>35</v>
@@ -9045,7 +9084,7 @@
         <v>28</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>35</v>
@@ -9060,7 +9099,7 @@
         <v>28</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>35</v>
@@ -9084,7 +9123,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -9114,7 +9153,7 @@
         <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9135,7 +9174,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -9165,7 +9204,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9236,7 +9275,7 @@
         <v>28</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>35</v>
@@ -9251,7 +9290,7 @@
         <v>28</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>35</v>
@@ -9260,13 +9299,13 @@
         <v>8743</v>
       </c>
       <c r="N36" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>28</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>35</v>
@@ -9290,7 +9329,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -9305,7 +9344,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -9320,7 +9359,7 @@
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9341,7 +9380,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -9356,7 +9395,7 @@
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -9371,7 +9410,7 @@
         <v>12</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9413,7 +9452,7 @@
         <v>8743</v>
       </c>
       <c r="N39" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>35</v>
@@ -9427,7 +9466,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1432-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1432-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A43B4354-1054-426B-8469-1508C5704653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3375CA7-B35B-4935-BBA3-72A8AEC27991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{33C81243-2D77-4B5E-8F6F-063FE64994D0}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0F1B3177-490A-4AD6-BEC5-A101FE9ACC29}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="354">
   <si>
     <t>Población con diagnóstico de incontinencia urinaria en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -511,7 +511,28 @@
     <t>Población con diagnóstico de incontinencia urinaria en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
   </si>
   <si>
     <t>0,21%</t>
@@ -580,493 +601,481 @@
     <t>99,69%</t>
   </si>
   <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de incontinencia urinaria en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
   </si>
   <si>
     <t>2,33%</t>
   </si>
   <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
   </si>
   <si>
     <t>97,67%</t>
   </si>
   <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de incontinencia urinaria en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
     <t>1,14%</t>
   </si>
   <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>1,56%</t>
-  </si>
-  <si>
     <t>1,04%</t>
   </si>
   <si>
     <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
   </si>
   <si>
     <t>99,75%</t>
@@ -1502,7 +1511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E382E7C2-54DF-4966-8C08-EB3D81736447}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887C23A7-E055-45BD-8136-BC0CF1622A6E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2914,7 +2923,7 @@
         <v>3177</v>
       </c>
       <c r="D29" s="7">
-        <v>3240621</v>
+        <v>3240620</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>148</v>
@@ -2929,7 +2938,7 @@
         <v>3249</v>
       </c>
       <c r="I29" s="7">
-        <v>3328509</v>
+        <v>3328508</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>122</v>
@@ -2944,7 +2953,7 @@
         <v>6426</v>
       </c>
       <c r="N29" s="7">
-        <v>6569128</v>
+        <v>6569129</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>153</v>
@@ -2965,7 +2974,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -2980,7 +2989,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -2995,7 +3004,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3033,7 +3042,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C1C1CD0-E4D6-4AAA-A6A8-C2BAF3D49579}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9281194-5406-430B-96FE-14D50077251F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3153,41 +3162,47 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>157</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2960</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>157</v>
+        <v>50</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="N4" s="7">
+        <v>2960</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>157</v>
+        <v>38</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3196,43 +3211,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D5" s="7">
+        <v>294738</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>157</v>
+        <v>23</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>157</v>
+        <v>30</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>253</v>
+      </c>
+      <c r="I5" s="7">
+        <v>284285</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>157</v>
+        <v>60</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>535</v>
+      </c>
+      <c r="N5" s="7">
+        <v>579023</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>157</v>
+        <v>47</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3241,43 +3262,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>157</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>157</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>157</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>157</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>157</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>157</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>157</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>157</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>157</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3294,13 +3321,13 @@
         <v>1062</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -3309,13 +3336,13 @@
         <v>13073</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -3324,13 +3351,13 @@
         <v>14135</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3345,10 +3372,10 @@
         <v>504465</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>23</v>
@@ -3360,13 +3387,13 @@
         <v>509583</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="M8" s="7">
         <v>939</v>
@@ -3375,13 +3402,13 @@
         <v>1014049</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3464,13 +3491,13 @@
         <v>2085</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -3479,7 +3506,7 @@
         <v>2085</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
@@ -3515,10 +3542,10 @@
         <v>338935</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>23</v>
@@ -3530,7 +3557,7 @@
         <v>662981</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>152</v>
@@ -3604,43 +3631,43 @@
         <v>2126</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>187</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>144</v>
+        <v>188</v>
       </c>
       <c r="H13" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I13" s="7">
-        <v>9018</v>
+        <v>6058</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="M13" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N13" s="7">
-        <v>11144</v>
+        <v>8185</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3649,49 +3676,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>624</v>
+        <v>342</v>
       </c>
       <c r="D14" s="7">
-        <v>666594</v>
+        <v>371856</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>60</v>
+        <v>195</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>152</v>
+        <v>196</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H14" s="7">
-        <v>618</v>
+        <v>365</v>
       </c>
       <c r="I14" s="7">
-        <v>667178</v>
+        <v>382893</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="M14" s="7">
-        <v>1242</v>
+        <v>707</v>
       </c>
       <c r="N14" s="7">
-        <v>1333772</v>
+        <v>754748</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3700,10 +3727,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3715,10 +3742,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3730,10 +3757,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3759,13 +3786,13 @@
         <v>4483</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -3774,13 +3801,13 @@
         <v>10380</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -3789,13 +3816,13 @@
         <v>14863</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3810,13 +3837,13 @@
         <v>208135</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="H17" s="7">
         <v>202</v>
@@ -3825,13 +3852,13 @@
         <v>209211</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="M17" s="7">
         <v>395</v>
@@ -3840,13 +3867,13 @@
         <v>417346</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3914,13 +3941,13 @@
         <v>954</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -3932,10 +3959,10 @@
         <v>14</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -3944,13 +3971,13 @@
         <v>6217</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3965,10 +3992,10 @@
         <v>273027</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>23</v>
@@ -3983,10 +4010,10 @@
         <v>24</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="M20" s="7">
         <v>523</v>
@@ -3995,13 +4022,13 @@
         <v>545860</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4072,10 +4099,10 @@
         <v>101</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -4084,13 +4111,13 @@
         <v>8201</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -4099,13 +4126,13 @@
         <v>19143</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4123,10 +4150,10 @@
         <v>107</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="H23" s="7">
         <v>629</v>
@@ -4135,13 +4162,13 @@
         <v>685652</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="M23" s="7">
         <v>1237</v>
@@ -4150,13 +4177,13 @@
         <v>1337498</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4224,13 +4251,13 @@
         <v>3089</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>236</v>
+        <v>192</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -4239,13 +4266,13 @@
         <v>9871</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -4254,13 +4281,13 @@
         <v>12961</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>241</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4275,13 +4302,13 @@
         <v>776009</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="H26" s="7">
         <v>747</v>
@@ -4290,10 +4317,10 @@
         <v>812707</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>29</v>
@@ -4305,13 +4332,13 @@
         <v>1588715</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>248</v>
+        <v>163</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4379,13 +4406,13 @@
         <v>22657</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>53</v>
@@ -4394,13 +4421,13 @@
         <v>57892</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="M28" s="7">
         <v>73</v>
@@ -4409,13 +4436,13 @@
         <v>80549</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4430,13 +4457,13 @@
         <v>3404122</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="H29" s="7">
         <v>3242</v>
@@ -4445,28 +4472,28 @@
         <v>3496098</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="M29" s="7">
         <v>6431</v>
       </c>
       <c r="N29" s="7">
-        <v>6900219</v>
+        <v>6900220</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4508,7 +4535,7 @@
         <v>6504</v>
       </c>
       <c r="N30" s="7">
-        <v>6980768</v>
+        <v>6980769</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -4546,7 +4573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB7588F-0A9D-4E91-949F-953CD078B3D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69761FBA-5116-464E-9934-635326396AA4}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4563,7 +4590,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4670,13 +4697,13 @@
         <v>2877</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -4685,13 +4712,13 @@
         <v>5397</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -4706,7 +4733,7 @@
         <v>53</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4721,13 +4748,13 @@
         <v>290884</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="H5" s="7">
         <v>272</v>
@@ -4736,13 +4763,13 @@
         <v>283306</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="M5" s="7">
         <v>535</v>
@@ -4754,7 +4781,7 @@
         <v>41</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>63</v>
@@ -4825,10 +4852,10 @@
         <v>2612</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>17</v>
@@ -4840,13 +4867,13 @@
         <v>4737</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -4855,13 +4882,13 @@
         <v>7349</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>286</v>
+        <v>190</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4876,13 +4903,13 @@
         <v>499963</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="H8" s="7">
         <v>480</v>
@@ -4891,13 +4918,13 @@
         <v>518347</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="M8" s="7">
         <v>952</v>
@@ -4906,13 +4933,13 @@
         <v>1018310</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>294</v>
+        <v>199</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4986,7 +5013,7 @@
         <v>85</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>297</v>
+        <v>187</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5001,7 +5028,7 @@
         <v>85</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5016,7 +5043,7 @@
         <v>85</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5034,7 +5061,7 @@
         <v>23</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>300</v>
+        <v>195</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>30</v>
@@ -5049,7 +5076,7 @@
         <v>23</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -5064,7 +5091,7 @@
         <v>23</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>30</v>
@@ -5135,13 +5162,13 @@
         <v>970</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -5150,13 +5177,13 @@
         <v>15172</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -5165,13 +5192,13 @@
         <v>16142</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5186,10 +5213,10 @@
         <v>368994</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>23</v>
@@ -5201,13 +5228,13 @@
         <v>372111</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="M14" s="7">
         <v>698</v>
@@ -5216,13 +5243,13 @@
         <v>741105</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5290,13 +5317,13 @@
         <v>947</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5311,7 +5338,7 @@
         <v>85</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -5320,7 +5347,7 @@
         <v>947</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
@@ -5341,10 +5368,10 @@
         <v>210274</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>23</v>
@@ -5359,7 +5386,7 @@
         <v>23</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -5371,7 +5398,7 @@
         <v>428861</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>152</v>
@@ -5460,10 +5487,10 @@
         <v>3479</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>87</v>
@@ -5475,13 +5502,13 @@
         <v>7717</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5511,13 +5538,13 @@
         <v>269636</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>91</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="M20" s="7">
         <v>514</v>
@@ -5526,13 +5553,13 @@
         <v>528521</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5603,10 +5630,10 @@
         <v>18</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -5615,13 +5642,13 @@
         <v>16478</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>117</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="M22" s="7">
         <v>18</v>
@@ -5630,13 +5657,13 @@
         <v>20090</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>182</v>
+        <v>337</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5654,10 +5681,10 @@
         <v>29</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="H23" s="7">
         <v>632</v>
@@ -5666,10 +5693,10 @@
         <v>674816</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>125</v>
@@ -5681,10 +5708,10 @@
         <v>1327762</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>187</v>
+        <v>341</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>21</v>
@@ -5755,13 +5782,13 @@
         <v>2260</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -5773,10 +5800,10 @@
         <v>68</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>339</v>
+        <v>189</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -5785,13 +5812,13 @@
         <v>8267</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5806,10 +5833,10 @@
         <v>776323</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>23</v>
@@ -5824,10 +5851,10 @@
         <v>76</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>342</v>
+        <v>197</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M26" s="7">
         <v>1498</v>
@@ -5836,13 +5863,13 @@
         <v>1596483</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5910,13 +5937,13 @@
         <v>17516</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="H28" s="7">
         <v>44</v>
@@ -5925,13 +5952,13 @@
         <v>51270</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>86</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="M28" s="7">
         <v>63</v>
@@ -5943,10 +5970,10 @@
         <v>86</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5961,13 +5988,13 @@
         <v>3376834</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="H29" s="7">
         <v>3294</v>
@@ -5976,10 +6003,10 @@
         <v>3493272</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>90</v>
@@ -5994,10 +6021,10 @@
         <v>90</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
